--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Rarres2</t>
+  </si>
+  <si>
+    <t>Gpr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rarres2</t>
-  </si>
-  <si>
-    <t>Gpr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H2">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I2">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J2">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.109819333333333</v>
+        <v>0.9956586666666668</v>
       </c>
       <c r="N2">
-        <v>6.329458</v>
+        <v>2.986976</v>
       </c>
       <c r="O2">
-        <v>0.3538781574239624</v>
+        <v>0.2287590061179932</v>
       </c>
       <c r="P2">
-        <v>0.3766664379496617</v>
+        <v>0.2450602367332084</v>
       </c>
       <c r="Q2">
-        <v>4.284590158116445</v>
+        <v>0.5287408841848891</v>
       </c>
       <c r="R2">
-        <v>38.561311423048</v>
+        <v>4.758667957664001</v>
       </c>
       <c r="S2">
-        <v>0.009796828006645051</v>
+        <v>0.002764105226715312</v>
       </c>
       <c r="T2">
-        <v>0.01218778189756798</v>
+        <v>0.003042798181805581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H3">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I3">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J3">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.678502</v>
       </c>
       <c r="O3">
-        <v>0.3733931060309189</v>
+        <v>0.51147631580469</v>
       </c>
       <c r="P3">
-        <v>0.3974380680272611</v>
+        <v>0.5479238136306437</v>
       </c>
       <c r="Q3">
-        <v>4.520867970079111</v>
+        <v>1.182197999753111</v>
       </c>
       <c r="R3">
-        <v>40.68781173071201</v>
+        <v>10.639781997778</v>
       </c>
       <c r="S3">
-        <v>0.01033708343368974</v>
+        <v>0.006180191030938534</v>
       </c>
       <c r="T3">
-        <v>0.01285988875800607</v>
+        <v>0.006803313365351758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H4">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I4">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J4">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3317663333333333</v>
+        <v>0.1761506666666667</v>
       </c>
       <c r="N4">
-        <v>0.9952989999999999</v>
+        <v>0.528452</v>
       </c>
       <c r="O4">
-        <v>0.05564687785366651</v>
+        <v>0.04047175280319151</v>
       </c>
       <c r="P4">
-        <v>0.0592303051896166</v>
+        <v>0.04335574581855945</v>
       </c>
       <c r="Q4">
-        <v>0.6737462038271113</v>
+        <v>0.09354416564755558</v>
       </c>
       <c r="R4">
-        <v>6.063715834444</v>
+        <v>0.8418974908280001</v>
       </c>
       <c r="S4">
-        <v>0.001540538402843626</v>
+        <v>0.0004890219858707133</v>
       </c>
       <c r="T4">
-        <v>0.001916512778008404</v>
+        <v>0.0005383279895022668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H5">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I5">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J5">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0821</v>
+        <v>0.8685624999999999</v>
       </c>
       <c r="N5">
-        <v>2.1642</v>
+        <v>1.737125</v>
       </c>
       <c r="O5">
-        <v>0.1814996896172483</v>
+        <v>0.1995578413599836</v>
       </c>
       <c r="P5">
-        <v>0.1287916761610012</v>
+        <v>0.1425188095703395</v>
       </c>
       <c r="Q5">
-        <v>2.1975128092</v>
+        <v>0.4612469308958334</v>
       </c>
       <c r="R5">
-        <v>13.1850768552</v>
+        <v>2.767481585375</v>
       </c>
       <c r="S5">
-        <v>0.005024670794556475</v>
+        <v>0.002411266256554038</v>
       </c>
       <c r="T5">
-        <v>0.004167307466566115</v>
+        <v>0.001769589307570271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H6">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I6">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J6">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2121406666666667</v>
+        <v>0.08589566666666666</v>
       </c>
       <c r="N6">
-        <v>0.636422</v>
+        <v>0.257687</v>
       </c>
       <c r="O6">
-        <v>0.03558216907420399</v>
+        <v>0.0197350839141417</v>
       </c>
       <c r="P6">
-        <v>0.03787351267245942</v>
+        <v>0.02114139424724881</v>
       </c>
       <c r="Q6">
-        <v>0.4308121544702223</v>
+        <v>0.04561457883255556</v>
       </c>
       <c r="R6">
-        <v>3.877309390232001</v>
+        <v>0.410531209493</v>
       </c>
       <c r="S6">
-        <v>0.0009850633140539139</v>
+        <v>0.0002384598950766891</v>
       </c>
       <c r="T6">
-        <v>0.001225471838317596</v>
+        <v>0.0002625027904726836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>118.481473</v>
       </c>
       <c r="I7">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J7">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.109819333333333</v>
+        <v>0.9956586666666668</v>
       </c>
       <c r="N7">
-        <v>6.329458</v>
+        <v>2.986976</v>
       </c>
       <c r="O7">
-        <v>0.3538781574239624</v>
+        <v>0.2287590061179932</v>
       </c>
       <c r="P7">
-        <v>0.3766664379496617</v>
+        <v>0.2450602367332084</v>
       </c>
       <c r="Q7">
-        <v>83.32483412573711</v>
+        <v>39.32236847729423</v>
       </c>
       <c r="R7">
-        <v>749.923507131634</v>
+        <v>353.9013162956481</v>
       </c>
       <c r="S7">
-        <v>0.1905244232206653</v>
+        <v>0.2055660295732068</v>
       </c>
       <c r="T7">
-        <v>0.2370226480242766</v>
+        <v>0.2262923766363431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>118.481473</v>
       </c>
       <c r="I8">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J8">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.678502</v>
       </c>
       <c r="O8">
-        <v>0.3733931060309189</v>
+        <v>0.51147631580469</v>
       </c>
       <c r="P8">
-        <v>0.3974380680272611</v>
+        <v>0.5479238136306437</v>
       </c>
       <c r="Q8">
         <v>87.91986159927178</v>
@@ -948,10 +948,10 @@
         <v>791.2787543934461</v>
       </c>
       <c r="S8">
-        <v>0.2010310743081097</v>
+        <v>0.4596197423871903</v>
       </c>
       <c r="T8">
-        <v>0.2500934880799315</v>
+        <v>0.5059612430600616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>118.481473</v>
       </c>
       <c r="I9">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J9">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3317663333333333</v>
+        <v>0.1761506666666667</v>
       </c>
       <c r="N9">
-        <v>0.9952989999999999</v>
+        <v>0.528452</v>
       </c>
       <c r="O9">
-        <v>0.05564687785366651</v>
+        <v>0.04047175280319151</v>
       </c>
       <c r="P9">
-        <v>0.0592303051896166</v>
+        <v>0.04335574581855945</v>
       </c>
       <c r="Q9">
-        <v>13.10272128838078</v>
+        <v>6.95686348553289</v>
       </c>
       <c r="R9">
-        <v>117.924491595427</v>
+        <v>62.61177136979601</v>
       </c>
       <c r="S9">
-        <v>0.02995971659928937</v>
+        <v>0.03636848085154359</v>
       </c>
       <c r="T9">
-        <v>0.03727150169191651</v>
+        <v>0.04003535984829767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>118.481473</v>
       </c>
       <c r="I10">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J10">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.0821</v>
+        <v>0.8685624999999999</v>
       </c>
       <c r="N10">
-        <v>2.1642</v>
+        <v>1.737125</v>
       </c>
       <c r="O10">
-        <v>0.1814996896172483</v>
+        <v>0.1995578413599836</v>
       </c>
       <c r="P10">
-        <v>0.1287916761610012</v>
+        <v>0.1425188095703395</v>
       </c>
       <c r="Q10">
-        <v>42.73626731110001</v>
+        <v>34.30285479752083</v>
       </c>
       <c r="R10">
-        <v>256.4176038666</v>
+        <v>205.817128785125</v>
       </c>
       <c r="S10">
-        <v>0.09771759842647597</v>
+        <v>0.1793254561414404</v>
       </c>
       <c r="T10">
-        <v>0.08104397167247804</v>
+        <v>0.1316040519791279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>118.481473</v>
       </c>
       <c r="I11">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J11">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2121406666666667</v>
+        <v>0.08589566666666666</v>
       </c>
       <c r="N11">
-        <v>0.636422</v>
+        <v>0.257687</v>
       </c>
       <c r="O11">
-        <v>0.03558216907420399</v>
+        <v>0.0197350839141417</v>
       </c>
       <c r="P11">
-        <v>0.03787351267245942</v>
+        <v>0.02114139424724881</v>
       </c>
       <c r="Q11">
-        <v>8.378246223289556</v>
+        <v>3.392348370327889</v>
       </c>
       <c r="R11">
-        <v>75.40421600960602</v>
+        <v>30.531135332951</v>
       </c>
       <c r="S11">
-        <v>0.01915708019153334</v>
+        <v>0.01773422132036914</v>
       </c>
       <c r="T11">
-        <v>0.02383243994997774</v>
+        <v>0.01952228730940234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H12">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I12">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J12">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.109819333333333</v>
+        <v>0.9956586666666668</v>
       </c>
       <c r="N12">
-        <v>6.329458</v>
+        <v>2.986976</v>
       </c>
       <c r="O12">
-        <v>0.3538781574239624</v>
+        <v>0.2287590061179932</v>
       </c>
       <c r="P12">
-        <v>0.3766664379496617</v>
+        <v>0.2450602367332084</v>
       </c>
       <c r="Q12">
-        <v>0.1061302419246666</v>
+        <v>3.525873266357334</v>
       </c>
       <c r="R12">
-        <v>0.9551721773219999</v>
+        <v>21.155239598144</v>
       </c>
       <c r="S12">
-        <v>0.0002426695875380227</v>
+        <v>0.01843225106244323</v>
       </c>
       <c r="T12">
-        <v>0.0003018940420389233</v>
+        <v>0.01352713094453713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H13">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I13">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J13">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.678502</v>
       </c>
       <c r="O13">
-        <v>0.3733931060309189</v>
+        <v>0.51147631580469</v>
       </c>
       <c r="P13">
-        <v>0.3974380680272611</v>
+        <v>0.5479238136306437</v>
       </c>
       <c r="Q13">
-        <v>0.1119828953686666</v>
+        <v>7.883408390664667</v>
       </c>
       <c r="R13">
-        <v>1.007846058318</v>
+        <v>47.300450343988</v>
       </c>
       <c r="S13">
-        <v>0.0002560518334605996</v>
+        <v>0.04121219105377118</v>
       </c>
       <c r="T13">
-        <v>0.000318542277007768</v>
+        <v>0.03024496047753751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1275,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H14">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I14">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J14">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3317663333333333</v>
+        <v>0.1761506666666667</v>
       </c>
       <c r="N14">
-        <v>0.9952989999999999</v>
+        <v>0.528452</v>
       </c>
       <c r="O14">
-        <v>0.05564687785366651</v>
+        <v>0.04047175280319151</v>
       </c>
       <c r="P14">
-        <v>0.0592303051896166</v>
+        <v>0.04335574581855945</v>
       </c>
       <c r="Q14">
-        <v>0.01668884186566666</v>
+        <v>0.6237930198813334</v>
       </c>
       <c r="R14">
-        <v>0.150199576791</v>
+        <v>3.742758119288001</v>
       </c>
       <c r="S14">
-        <v>3.815947555177812E-05</v>
+        <v>0.003261010446167043</v>
       </c>
       <c r="T14">
-        <v>4.747244363534734E-05</v>
+        <v>0.002393202825165832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H15">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I15">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J15">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.0821</v>
+        <v>0.8685624999999999</v>
       </c>
       <c r="N15">
-        <v>2.1642</v>
+        <v>1.737125</v>
       </c>
       <c r="O15">
-        <v>0.1814996896172483</v>
+        <v>0.1995578413599836</v>
       </c>
       <c r="P15">
-        <v>0.1287916761610012</v>
+        <v>0.1425188095703395</v>
       </c>
       <c r="Q15">
-        <v>0.0544328763</v>
+        <v>3.0757943474375</v>
       </c>
       <c r="R15">
-        <v>0.3265972578</v>
+        <v>12.30317738975</v>
       </c>
       <c r="S15">
-        <v>0.0001244622022967343</v>
+        <v>0.01607936795952497</v>
       </c>
       <c r="T15">
-        <v>0.0001032251238227093</v>
+        <v>0.007866925392781547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H16">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I16">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J16">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2121406666666667</v>
+        <v>0.08589566666666666</v>
       </c>
       <c r="N16">
-        <v>0.636422</v>
+        <v>0.257687</v>
       </c>
       <c r="O16">
-        <v>0.03558216907420399</v>
+        <v>0.0197350839141417</v>
       </c>
       <c r="P16">
-        <v>0.03787351267245942</v>
+        <v>0.02114139424724881</v>
       </c>
       <c r="Q16">
-        <v>0.01067131195533333</v>
+        <v>0.3041777718963333</v>
       </c>
       <c r="R16">
-        <v>0.096041807598</v>
+        <v>1.825066631378</v>
       </c>
       <c r="S16">
-        <v>2.440023525555008E-05</v>
+        <v>0.001590153881225631</v>
       </c>
       <c r="T16">
-        <v>3.035520735306177E-05</v>
+        <v>0.001166988215407469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H17">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I17">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J17">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.109819333333333</v>
+        <v>0.9956586666666668</v>
       </c>
       <c r="N17">
-        <v>6.329458</v>
+        <v>2.986976</v>
       </c>
       <c r="O17">
-        <v>0.3538781574239624</v>
+        <v>0.2287590061179932</v>
       </c>
       <c r="P17">
-        <v>0.3766664379496617</v>
+        <v>0.2450602367332084</v>
       </c>
       <c r="Q17">
-        <v>67.05115868411566</v>
+        <v>0.3819300181262223</v>
       </c>
       <c r="R17">
-        <v>402.3069521046939</v>
+        <v>3.437370163136001</v>
       </c>
       <c r="S17">
-        <v>0.153314236609114</v>
+        <v>0.001996620255627919</v>
       </c>
       <c r="T17">
-        <v>0.1271541139857782</v>
+        <v>0.002197930970522545</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H18">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I18">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J18">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.678502</v>
       </c>
       <c r="O18">
-        <v>0.3733931060309189</v>
+        <v>0.51147631580469</v>
       </c>
       <c r="P18">
-        <v>0.3974380680272611</v>
+        <v>0.5479238136306437</v>
       </c>
       <c r="Q18">
-        <v>70.74875879959765</v>
+        <v>0.8539474002857778</v>
       </c>
       <c r="R18">
-        <v>424.492552797586</v>
+        <v>7.685526602572001</v>
       </c>
       <c r="S18">
-        <v>0.1617688964556588</v>
+        <v>0.004464191332789939</v>
       </c>
       <c r="T18">
-        <v>0.1341661489123157</v>
+        <v>0.004914296727692743</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,55 +1585,55 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H19">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I19">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J19">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.3317663333333333</v>
+        <v>0.1761506666666667</v>
       </c>
       <c r="N19">
-        <v>0.9952989999999999</v>
+        <v>0.528452</v>
       </c>
       <c r="O19">
-        <v>0.05564687785366651</v>
+        <v>0.04047175280319151</v>
       </c>
       <c r="P19">
-        <v>0.0592303051896166</v>
+        <v>0.04335574581855945</v>
       </c>
       <c r="Q19">
-        <v>10.54370708947617</v>
+        <v>0.06757057369688889</v>
       </c>
       <c r="R19">
-        <v>63.26224253685699</v>
+        <v>0.6081351632720001</v>
       </c>
       <c r="S19">
-        <v>0.02410846337598173</v>
+        <v>0.0003532395196101625</v>
       </c>
       <c r="T19">
-        <v>0.01999481827605635</v>
+        <v>0.0003888551555936774</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H20">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I20">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J20">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.0821</v>
+        <v>0.8685624999999999</v>
       </c>
       <c r="N20">
-        <v>2.1642</v>
+        <v>1.737125</v>
       </c>
       <c r="O20">
-        <v>0.1814996896172483</v>
+        <v>0.1995578413599836</v>
       </c>
       <c r="P20">
-        <v>0.1287916761610012</v>
+        <v>0.1425188095703395</v>
       </c>
       <c r="Q20">
-        <v>34.38970231515</v>
+        <v>0.3331765217083333</v>
       </c>
       <c r="R20">
-        <v>137.5588092606</v>
+        <v>1.99905913025</v>
       </c>
       <c r="S20">
-        <v>0.07863295819391912</v>
+        <v>0.001741751002464188</v>
       </c>
       <c r="T20">
-        <v>0.0434771718981343</v>
+        <v>0.001278242890859845</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H21">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I21">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J21">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2121406666666667</v>
+        <v>0.08589566666666666</v>
       </c>
       <c r="N21">
-        <v>0.636422</v>
+        <v>0.257687</v>
       </c>
       <c r="O21">
-        <v>0.03558216907420399</v>
+        <v>0.0197350839141417</v>
       </c>
       <c r="P21">
-        <v>0.03787351267245942</v>
+        <v>0.02114139424724881</v>
       </c>
       <c r="Q21">
-        <v>6.741941018024333</v>
+        <v>0.03294917688688889</v>
       </c>
       <c r="R21">
-        <v>40.451646108146</v>
+        <v>0.296542591982</v>
       </c>
       <c r="S21">
-        <v>0.01541562533336118</v>
+        <v>0.0001722488174702413</v>
       </c>
       <c r="T21">
-        <v>0.01278524567681103</v>
+        <v>0.0001896159319663242</v>
       </c>
     </row>
   </sheetData>
